--- a/login.xlsx
+++ b/login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\Katalon Studio\ACCBid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\git\acctesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">username </t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>wrongpass</t>
-  </si>
-  <si>
-    <t>intanlyn7@gmail.com</t>
-  </si>
-  <si>
-    <t>wrongemail</t>
-  </si>
-  <si>
-    <t>fieldempty</t>
   </si>
 </sst>
 </file>
@@ -397,7 +388,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,36 +439,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/login.xlsx
+++ b/login.xlsx
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,12 +438,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
